--- a/file_db/Greenworks управление ценой (3) (2).xlsx
+++ b/file_db/Greenworks управление ценой (3) (2).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9215"/>
+    <workbookView windowWidth="28128" windowHeight="12455"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -217,9 +217,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -240,6 +240,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -253,40 +260,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -322,6 +305,22 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -329,18 +328,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -354,6 +346,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,7 +388,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,55 +403,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,19 +565,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,103 +577,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,82 +691,82 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -781,64 +775,64 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1177,12 +1171,13 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="32.4416666666667" customWidth="1"/>
+    <col min="5" max="5" width="22.4416666666667" customWidth="1"/>
     <col min="9" max="9" width="18.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1222,7 +1217,6 @@
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2"/>
       <c r="D2" t="s">
         <v>11</v>
       </c>
